--- a/設計図.xlsx
+++ b/設計図.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16320" windowHeight="6420" activeTab="3"/>
+    <workbookView windowWidth="16320" windowHeight="7392"/>
   </bookViews>
   <sheets>
-    <sheet name="スタート画面" sheetId="1" r:id="rId1"/>
-    <sheet name="キャラクター選択画面" sheetId="2" r:id="rId2"/>
-    <sheet name="バトル画面" sheetId="3" r:id="rId3"/>
-    <sheet name="リザルト画面" sheetId="4" r:id="rId4"/>
+    <sheet name="コネクション画面" sheetId="1" r:id="rId1"/>
+    <sheet name="スタート画面" sheetId="2" r:id="rId2"/>
+    <sheet name="キャラクター選択画面" sheetId="3" r:id="rId3"/>
+    <sheet name="バトル画面" sheetId="4" r:id="rId4"/>
+    <sheet name="リザルト画面" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst/>
@@ -18,7 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>コネクション画面 設計図</t>
+  </si>
+  <si>
+    <t>ConnectionManager</t>
+  </si>
+  <si>
+    <t>ConnectionSequence</t>
+  </si>
   <si>
     <t>スタート画面 設計図</t>
   </si>
@@ -440,6 +450,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -774,8 +788,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -796,7 +810,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" ht="13.95" spans="1:9">
+    <row r="2" spans="1:9">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -868,8 +882,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -882,7 +896,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -891,30 +905,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" ht="13.95" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" ht="13.95"/>
+    <row r="4" ht="13.95" spans="2:8">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1035,8 @@
       <c r="H2" s="4"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="3" ht="13.95"/>
+    <row r="4" ht="13.95" spans="2:8">
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1109,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -1135,6 +1151,113 @@
       <c r="D4" s="7"/>
       <c r="F4" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="13.95" spans="2:8">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="16384" width="7.77777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" ht="13.95" spans="1:9">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" ht="13.95"/>
+    <row r="4" ht="13.95" spans="2:8">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
